--- a/Excel/Excel Charts Tutorial File.xlsx
+++ b/Excel/Excel Charts Tutorial File.xlsx
@@ -1,21 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C7DD-8BCF-4FE5-B548-55CBD210AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C143C-FC14-C741-B64F-5595F3EC906E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
     <sheet name="Chart Sheet" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sales!$B$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sales!$B$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sales!$B$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sales!$B$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sales!$A$3</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sales!$A$4</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sales!$A$5</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sales!$A$6</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sales!$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sales!$A$8</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sales!$A$9</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sales!$B$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sales!$B$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sales!$B$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sales!$B$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sales!$B$6:$M$6</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sales!$B$7:$M$7</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sales!$B$8:$M$8</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sales!$B$9:$M$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sales!$B$4:$M$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -172,6 +264,8729 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D738-354B-8AA4-63ECDBEBD9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D738-354B-8AA4-63ECDBEBD9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D738-354B-8AA4-63ECDBEBD9BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="858039408"/>
+        <c:axId val="858041136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858041136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86943067018154474"/>
+          <c:y val="4.2201808107319924E-2"/>
+          <c:w val="0.11744022697381645"/>
+          <c:h val="0.13392950881139856"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4DA9-604F-A43F-75F45B8CCA6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="858039408"/>
+        <c:axId val="858041136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="858039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858041136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Staplers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highlighters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2B54-2540-9415-A6C4B0B2BC49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:shape val="box"/>
+        <c:axId val="858039408"/>
+        <c:axId val="858041136"/>
+        <c:axId val="1957813376"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="858039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858041136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1957813376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DA5-AC4A-B60E-AD3DC19B3338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DA5-AC4A-B60E-AD3DC19B3338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DA5-AC4A-B60E-AD3DC19B3338}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="858039408"/>
+        <c:axId val="858041136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858041136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Products Sold Per Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D3C-4343-9129-CE268975610D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manila Folder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D3C-4343-9129-CE268975610D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sales!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 Ring Binder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sales!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sales!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D3C-4343-9129-CE268975610D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="858039408"/>
+        <c:axId val="858041136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858039408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858041136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="858041136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858039408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86943067018154474"/>
+          <c:y val="4.2201808107319924E-2"/>
+          <c:w val="0.11744022697381645"/>
+          <c:h val="0.13392950881139856"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319DADB4-8391-3FC0-916A-0BB224A10022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778FACB5-B0D0-D349-8498-D9D066AD1DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19A9987-60AB-294E-848D-4724A52D5FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB10FA3F-5E5A-CB4D-A8DD-AA3D197F1884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78FD04B-802D-6140-9AFD-02127679175B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,17 +9288,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41930B34-5114-49CB-81BC-662EB848F545}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -501,7 +9316,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +9357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -587,7 +9402,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -632,7 +9447,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -677,7 +9492,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -722,7 +9537,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -767,7 +9582,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -812,7 +9627,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -857,7 +9672,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -920,6 +9735,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -927,12 +9743,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B444C6-5638-496B-93B2-259D582C3A1D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>